--- a/resources/docs/metadata_fi.xlsx
+++ b/resources/docs/metadata_fi.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72BA4ED-BC9D-4B2E-8424-0FF818BB6C12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="333">
   <si>
     <t>filename</t>
   </si>
@@ -1015,12 +1016,15 @@
   </si>
   <si>
     <t>Zehn Stunden auf der Jagd</t>
+  </si>
+  <si>
+    <t>decade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1340,11 +1344,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E143"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,10 +1357,10 @@
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1369,8 +1373,11 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1386,8 +1393,11 @@
       <c r="E2">
         <v>1901</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1403,8 +1413,11 @@
       <c r="E3">
         <v>1857</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1420,8 +1433,11 @@
       <c r="E4">
         <v>1899</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1437,8 +1453,11 @@
       <c r="E5">
         <v>1919</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1454,8 +1473,11 @@
       <c r="E6">
         <v>1884</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1471,8 +1493,11 @@
       <c r="E7">
         <v>1894</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1488,8 +1513,11 @@
       <c r="E8">
         <v>1894</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1505,8 +1533,11 @@
       <c r="E9">
         <v>1842</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1522,8 +1553,11 @@
       <c r="E10">
         <v>1897</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1539,8 +1573,11 @@
       <c r="E11">
         <v>1905</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1556,8 +1593,11 @@
       <c r="E12">
         <v>1905</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1573,8 +1613,11 @@
       <c r="E13">
         <v>1897</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1590,8 +1633,11 @@
       <c r="E14">
         <v>1905</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1607,8 +1653,11 @@
       <c r="E15">
         <v>1897</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1624,8 +1673,11 @@
       <c r="E16">
         <v>1905</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1641,8 +1693,11 @@
       <c r="E17">
         <v>1894</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1658,8 +1713,11 @@
       <c r="E18">
         <v>1884</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1675,8 +1733,11 @@
       <c r="E19">
         <v>1915</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1692,8 +1753,11 @@
       <c r="E20">
         <v>1883</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1709,8 +1773,11 @@
       <c r="E21">
         <v>1898</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1726,8 +1793,11 @@
       <c r="E22">
         <v>1875</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1743,8 +1813,11 @@
       <c r="E23">
         <v>1887</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1760,8 +1833,11 @@
       <c r="E24">
         <v>1883</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1777,8 +1853,11 @@
       <c r="E25">
         <v>1881</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1794,8 +1873,11 @@
       <c r="E26">
         <v>1919</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1811,8 +1893,11 @@
       <c r="E27">
         <v>1911</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1828,8 +1913,11 @@
       <c r="E28">
         <v>1911</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1845,8 +1933,11 @@
       <c r="E29">
         <v>1911</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1862,8 +1953,11 @@
       <c r="E30">
         <v>1911</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1879,8 +1973,11 @@
       <c r="E31">
         <v>1879</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1896,8 +1993,11 @@
       <c r="E32">
         <v>1877</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1913,8 +2013,11 @@
       <c r="E33">
         <v>1877</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1930,8 +2033,11 @@
       <c r="E34">
         <v>1877</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1947,8 +2053,11 @@
       <c r="E35">
         <v>1877</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1964,8 +2073,11 @@
       <c r="E36">
         <v>1877</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1981,8 +2093,11 @@
       <c r="E37">
         <v>1877</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1998,8 +2113,11 @@
       <c r="E38">
         <v>1857</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2015,8 +2133,11 @@
       <c r="E39">
         <v>1855</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2032,8 +2153,11 @@
       <c r="E40">
         <v>1857</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2049,8 +2173,11 @@
       <c r="E41">
         <v>1890</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2066,8 +2193,11 @@
       <c r="E42">
         <v>1890</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2083,8 +2213,11 @@
       <c r="E43">
         <v>1852</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2100,8 +2233,11 @@
       <c r="E44">
         <v>1850</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2117,8 +2253,11 @@
       <c r="E45">
         <v>1842</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2134,8 +2273,11 @@
       <c r="E46">
         <v>1847</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2151,8 +2293,11 @@
       <c r="E47">
         <v>1905</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2168,8 +2313,11 @@
       <c r="E48">
         <v>1905</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2185,8 +2333,11 @@
       <c r="E49">
         <v>1905</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2202,8 +2353,11 @@
       <c r="E50">
         <v>1913</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2219,8 +2373,11 @@
       <c r="E51">
         <v>1913</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2236,8 +2393,11 @@
       <c r="E52">
         <v>1913</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2253,8 +2413,11 @@
       <c r="E53">
         <v>1862</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2270,8 +2433,11 @@
       <c r="E54">
         <v>1889</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2287,8 +2453,11 @@
       <c r="E55">
         <v>1889</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2304,8 +2473,11 @@
       <c r="E56">
         <v>1889</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2321,8 +2493,11 @@
       <c r="E57">
         <v>1897</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2338,8 +2513,11 @@
       <c r="E58">
         <v>1902</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2355,8 +2533,11 @@
       <c r="E59">
         <v>1895</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2372,8 +2553,11 @@
       <c r="E60">
         <v>1897</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2389,8 +2573,11 @@
       <c r="E61">
         <v>1897</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2406,8 +2593,11 @@
       <c r="E62">
         <v>1895</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2423,8 +2613,11 @@
       <c r="E63">
         <v>1897</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2440,8 +2633,11 @@
       <c r="E64">
         <v>1900</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2457,8 +2653,11 @@
       <c r="E65">
         <v>1895</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2474,8 +2673,11 @@
       <c r="E66">
         <v>1903</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2491,8 +2693,11 @@
       <c r="E67">
         <v>1860</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2508,8 +2713,11 @@
       <c r="E68">
         <v>1874</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2525,8 +2733,11 @@
       <c r="E69">
         <v>1877</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2542,8 +2753,11 @@
       <c r="E70">
         <v>1856</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2559,8 +2773,11 @@
       <c r="E71">
         <v>1876</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2576,8 +2793,11 @@
       <c r="E72">
         <v>1856</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2593,8 +2813,11 @@
       <c r="E73">
         <v>1903</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2610,8 +2833,11 @@
       <c r="E74">
         <v>1904</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2627,8 +2853,11 @@
       <c r="E75">
         <v>1859</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2644,8 +2873,11 @@
       <c r="E76">
         <v>1873</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2661,8 +2893,11 @@
       <c r="E77">
         <v>1866</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2678,8 +2913,11 @@
       <c r="E78">
         <v>1865</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2695,8 +2933,11 @@
       <c r="E79">
         <v>1873</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2712,8 +2953,11 @@
       <c r="E80">
         <v>1883</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2729,8 +2973,11 @@
       <c r="E81">
         <v>1877</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2746,8 +2993,11 @@
       <c r="E82">
         <v>1883</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2763,8 +3013,11 @@
       <c r="E83">
         <v>1885</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2780,8 +3033,11 @@
       <c r="E84">
         <v>1882</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2797,8 +3053,11 @@
       <c r="E85">
         <v>1913</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2814,8 +3073,11 @@
       <c r="E86">
         <v>1913</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2831,8 +3093,11 @@
       <c r="E87">
         <v>1913</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2848,8 +3113,11 @@
       <c r="E88">
         <v>1913</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2865,8 +3133,11 @@
       <c r="E89">
         <v>1907</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2882,8 +3153,11 @@
       <c r="E90">
         <v>1907</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2899,8 +3173,11 @@
       <c r="E91">
         <v>1855</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2916,8 +3193,11 @@
       <c r="E92">
         <v>1914</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2933,8 +3213,11 @@
       <c r="E93">
         <v>1892</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2950,8 +3233,11 @@
       <c r="E94">
         <v>1893</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2967,8 +3253,11 @@
       <c r="E95">
         <v>1890</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2984,8 +3273,11 @@
       <c r="E96">
         <v>1893</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3001,8 +3293,11 @@
       <c r="E97">
         <v>1842</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3018,8 +3313,11 @@
       <c r="E98">
         <v>1866</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3035,8 +3333,11 @@
       <c r="E99">
         <v>1861</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3052,8 +3353,11 @@
       <c r="E100">
         <v>1865</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3069,8 +3373,11 @@
       <c r="E101">
         <v>1875</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3086,8 +3393,11 @@
       <c r="E102">
         <v>1862</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3103,8 +3413,11 @@
       <c r="E103">
         <v>1862</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3120,8 +3433,11 @@
       <c r="E104">
         <v>1862</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3137,8 +3453,11 @@
       <c r="E105">
         <v>1862</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3154,8 +3473,11 @@
       <c r="E106">
         <v>1862</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3171,8 +3493,11 @@
       <c r="E107">
         <v>1862</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3188,8 +3513,11 @@
       <c r="E108">
         <v>1877</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3205,8 +3533,11 @@
       <c r="E109">
         <v>1906</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3222,8 +3553,11 @@
       <c r="E110">
         <v>1877</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3239,8 +3573,11 @@
       <c r="E111">
         <v>1877</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3256,8 +3593,11 @@
       <c r="E112">
         <v>1918</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3273,8 +3613,11 @@
       <c r="E113">
         <v>1904</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3290,8 +3633,11 @@
       <c r="E114">
         <v>1900</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3307,8 +3653,11 @@
       <c r="E115">
         <v>1897</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3324,8 +3673,11 @@
       <c r="E116">
         <v>1897</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3341,8 +3693,11 @@
       <c r="E117">
         <v>1917</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3358,8 +3713,11 @@
       <c r="E118">
         <v>1896</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3375,8 +3733,11 @@
       <c r="E119">
         <v>1913</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3392,8 +3753,11 @@
       <c r="E120">
         <v>1891</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3409,8 +3773,11 @@
       <c r="E121">
         <v>1894</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3426,8 +3793,11 @@
       <c r="E122">
         <v>1886</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3443,8 +3813,11 @@
       <c r="E123">
         <v>1886</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3460,8 +3833,11 @@
       <c r="E124">
         <v>1882</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3477,8 +3853,11 @@
       <c r="E125">
         <v>1885</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3494,8 +3873,11 @@
       <c r="E126">
         <v>1874</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3511,8 +3893,11 @@
       <c r="E127">
         <v>1875</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3528,8 +3913,11 @@
       <c r="E128">
         <v>1883</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3545,8 +3933,11 @@
       <c r="E129">
         <v>1874</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3562,8 +3953,11 @@
       <c r="E130">
         <v>1874</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3579,8 +3973,11 @@
       <c r="E131">
         <v>1884</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3596,8 +3993,11 @@
       <c r="E132">
         <v>1879</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3613,8 +4013,11 @@
       <c r="E133">
         <v>1917</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3630,8 +4033,11 @@
       <c r="E134">
         <v>1917</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3647,8 +4053,11 @@
       <c r="E135">
         <v>1917</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3664,8 +4073,11 @@
       <c r="E136">
         <v>1856</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3681,8 +4093,11 @@
       <c r="E137">
         <v>1875</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3698,8 +4113,11 @@
       <c r="E138">
         <v>1875</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3715,8 +4133,11 @@
       <c r="E139">
         <v>1875</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3732,8 +4153,11 @@
       <c r="E140">
         <v>1887</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3749,8 +4173,11 @@
       <c r="E141">
         <v>1875</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3766,8 +4193,11 @@
       <c r="E142">
         <v>1875</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F142">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3783,8 +4213,14 @@
       <c r="E143">
         <v>1885</v>
       </c>
+      <c r="F143">
+        <v>1880</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F143">
+    <sortCondition ref="A2:A143"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
